--- a/python/predict/pl3.xlsx
+++ b/python/predict/pl3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\stdudyrecord\python\predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F7D579-6795-434D-8FAA-99236F9A937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027D726-85B0-469B-9ED4-3FE8920EBE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{784EF20B-9B9C-4FD0-8C81-9A347D4A7E5A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="25">
   <si>
     <t>百</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -91,6 +91,34 @@
   </si>
   <si>
     <t>组六</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小中大</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小大中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小大</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +465,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -690,11 +712,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,18 +1071,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E601F6-95AE-4BBE-A4BD-71EE24F4EA39}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="27.35546875" customWidth="1"/>
+    <col min="10" max="10" width="27.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,182 +1108,186 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1281,19 +1304,22 @@
       <c r="H9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1307,13 +1333,16 @@
       <c r="H10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1333,43 +1362,49 @@
       <c r="H11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -1380,24 +1415,27 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1411,19 +1449,22 @@
       <c r="H14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1432,21 +1473,24 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>5</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1458,21 +1502,24 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1489,201 +1536,225 @@
       <c r="H17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1697,25 +1768,28 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1723,42 +1797,48 @@
       <c r="H26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1773,18 +1853,21 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1801,42 +1884,48 @@
       <c r="H29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1853,117 +1942,132 @@
       <c r="H31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -1978,24 +2082,27 @@
         <v>8</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -2009,19 +2116,22 @@
       <c r="H37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2033,151 +2143,169 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
       <c r="C43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -2186,21 +2314,24 @@
         <v>12</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2209,27 +2340,30 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -2243,13 +2377,16 @@
       <c r="H46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2261,7 +2398,7 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2269,45 +2406,51 @@
       <c r="H47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>1</v>
-      </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2316,41 +2459,47 @@
         <v>12</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>5</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>9</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -2368,56 +2517,62 @@
         <v>12</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
         <v>3</v>
       </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2425,19 +2580,22 @@
       <c r="H53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>9</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -2449,12 +2607,15 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -2475,27 +2636,30 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2503,16 +2667,19 @@
       <c r="H56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
         <v>2</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -2524,21 +2691,24 @@
         <v>12</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2547,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2555,19 +2725,22 @@
       <c r="H58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2576,44 +2749,50 @@
         <v>8</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2631,53 +2810,265 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>13</v>
       </c>
-      <c r="H62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63">
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>13</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H70" t="s">
         <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/python/predict/pl3.xlsx
+++ b/python/predict/pl3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\stdudyrecord\python\predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E28D5FC-0305-4682-ACD1-D47DCDFD1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871D197B-898A-4103-96B8-14C5547FCC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{784EF20B-9B9C-4FD0-8C81-9A347D4A7E5A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="40">
   <si>
     <t>百</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -164,6 +164,18 @@
   <si>
     <t>个位是否出现指定数（指定数为前十期个位重复的数字），0-不出现，1-出现</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>奇</t>
+  </si>
+  <si>
+    <t>2偶1奇</t>
+  </si>
+  <si>
+    <t>1偶2奇</t>
   </si>
 </sst>
 </file>
@@ -1151,44 +1163,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E601F6-95AE-4BBE-A4BD-71EE24F4EA39}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -1212,197 +1221,154 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1410,31 +1376,22 @@
       <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1442,11 +1399,11 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+      <c r="H8" t="s">
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1455,21 +1412,15 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1478,12 +1429,12 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1492,336 +1443,312 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
       </c>
       <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
         <v>7</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="J13" s="3">
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
-        <v>11</v>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
@@ -1830,59 +1757,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1891,103 +1818,115 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>9</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>5</v>
-      </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -1996,60 +1935,66 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
-        <v>7</v>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3">
+        <v>12</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
@@ -2057,16 +2002,22 @@
       <c r="L23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2081,36 +2032,42 @@
         <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2118,11 +2075,11 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="H25" t="s">
-        <v>11</v>
+      <c r="H25" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2133,22 +2090,28 @@
       <c r="L25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2156,37 +2119,43 @@
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>11</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2194,40 +2163,46 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
-        <v>7</v>
+      <c r="H27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>6</v>
@@ -2239,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
@@ -2248,24 +2223,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -2276,31 +2251,31 @@
       <c r="I29" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="3">
-        <v>1</v>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2308,7 +2283,7 @@
       <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30" t="s">
@@ -2321,10 +2296,10 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2332,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2347,49 +2322,49 @@
         <v>10</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>12</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2397,32 +2372,32 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
         <v>11</v>
       </c>
       <c r="I33" t="s">
@@ -2435,97 +2410,97 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="3">
+        <v>12</v>
+      </c>
+      <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2533,7 +2508,7 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H36" t="s">
@@ -2542,39 +2517,39 @@
       <c r="I36" t="s">
         <v>8</v>
       </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="J36" s="3">
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
         <v>7</v>
       </c>
       <c r="I37" t="s">
@@ -2587,65 +2562,65 @@
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
@@ -2657,270 +2632,270 @@
         <v>8</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
         <v>11</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
+      <c r="G41" t="s">
+        <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="3">
+        <v>8</v>
+      </c>
+      <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H44" t="s">
-        <v>7</v>
+      <c r="H44" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>1</v>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" t="s">
-        <v>7</v>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2929,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2937,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -2946,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2960,14 +2935,14 @@
       <c r="I47" t="s">
         <v>8</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2975,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2987,19 +2962,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -3010,69 +2985,69 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -3081,129 +3056,129 @@
         <v>17</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="3">
+        <v>8</v>
+      </c>
+      <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I52" t="s">
         <v>8</v>
       </c>
-      <c r="J52">
-        <v>1</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>6</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="3">
+        <v>12</v>
+      </c>
+      <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -3212,48 +3187,48 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
@@ -3271,24 +3246,24 @@
         <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3296,7 +3271,7 @@
       <c r="G56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I56" t="s">
@@ -3309,7 +3284,7 @@
         <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3320,63 +3295,63 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -3385,70 +3360,70 @@
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
         <v>7</v>
       </c>
       <c r="I60" t="s">
@@ -3461,24 +3436,24 @@
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3487,10 +3462,10 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3499,24 +3474,24 @@
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3524,42 +3499,42 @@
       <c r="G62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H62" t="s">
-        <v>11</v>
+      <c r="H62" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
         <v>5</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H63" t="s">
@@ -3568,113 +3543,113 @@
       <c r="I63" t="s">
         <v>12</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
         <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>6</v>
+      <c r="G66" t="s">
+        <v>10</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>11</v>
@@ -3682,46 +3657,46 @@
       <c r="I66" t="s">
         <v>12</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" t="s">
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
         <v>16</v>
@@ -3732,7 +3707,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3744,115 +3719,115 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69">
+        <v>12</v>
+      </c>
+      <c r="J69" s="3">
         <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
       </c>
-      <c r="J70">
-        <v>0</v>
+      <c r="J70" s="3">
+        <v>1</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3864,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -3879,129 +3854,129 @@
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="3">
+        <v>8</v>
+      </c>
+      <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -4010,57 +3985,57 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4069,59 +4044,68 @@
         <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
       </c>
       <c r="I77" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -4129,54 +4113,72 @@
       <c r="I78" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>8</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
       </c>
       <c r="G80" t="s">
         <v>6</v>
@@ -4188,114 +4190,150 @@
         <v>8</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
       </c>
       <c r="L80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5</v>
       </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="s">
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>7</v>
-      </c>
-      <c r="G83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>7</v>
+      <c r="H83" t="s">
+        <v>11</v>
       </c>
       <c r="I83" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
       </c>
       <c r="K83" t="s">
         <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>6</v>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -4310,84 +4348,591 @@
         <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>11</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
       </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
       <c r="K85" t="s">
         <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
       </c>
       <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1</v>
       </c>
       <c r="K87" t="s">
         <v>16</v>
       </c>
       <c r="L87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" t="s">
         <v>21</v>
       </c>
     </row>
